--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -4,38 +4,379 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20475" windowHeight="8415" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="students" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -43,15 +384,305 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -404,7 +1035,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -420,7 +1050,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -456,7 +1086,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -472,6 +1102,80 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>password</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col width="21.1428571428571" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>v7lfv</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ryann Kim Sesgundo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>w790x</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ryann Kim Sesgundo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
         </is>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,23 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>62iu9</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Martinez, Irish Valerie</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
         </is>
       </c>
     </row>
@@ -515,12 +532,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iveue</t>
+          <t>kflpj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sesgundo, Ryann Kim Malabanan</t>
+          <t>Sesgundo, Ryann Kim M</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1,42 +1,425 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="20475" windowHeight="8415"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="students" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="questions" sheetId="1" r:id="rId1"/>
+    <sheet name="students" sheetId="2" r:id="rId2"/>
+    <sheet name="teachers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>case sensitive</t>
+  </si>
+  <si>
+    <t>question by</t>
+  </si>
+  <si>
+    <t>What is the capital of the Philippines?</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>y3g0y</t>
+  </si>
+  <si>
+    <t>Sesgundo, Ryann Kim M.</t>
+  </si>
+  <si>
+    <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -44,85 +427,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,148 +1015,121 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="38.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="12.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>question by</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>62iu9</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Martinez, Irish Valerie</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
-        </is>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>kflpj</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sesgundo, Ryann Kim M</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1,233 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8415"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20475" windowHeight="8415" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="questions" sheetId="1" r:id="rId1"/>
-    <sheet name="students" sheetId="2" r:id="rId2"/>
-    <sheet name="teachers" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="students" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>case sensitive</t>
-  </si>
-  <si>
-    <t>question by</t>
-  </si>
-  <si>
-    <t>What is the capital of the Philippines?</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>y3g0y</t>
-  </si>
-  <si>
-    <t>Sesgundo, Ryann Kim M.</t>
-  </si>
-  <si>
-    <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -527,154 +484,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,11 +685,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1019,117 +1039,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="12.2857142857143" customWidth="1"/>
+    <col width="38.1428571428571" customWidth="1" min="1" max="1"/>
+    <col width="12.2857142857143" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>case sensitive</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>question by</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>What is the capital of the Philippines?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Manila</t>
+        </is>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>y3g0y</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sesgundo, Ryann Kim M.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1107,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,6 +1129,23 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>um2uw</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gemrey Secret</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
         </is>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1107,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,6 +1146,23 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>xp3de</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nico-Nicodemus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>054e3b308708370ea029dc2ebd1646c498d59d7203c9e1a44cf0484df98e581a</t>
         </is>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1044,7 +1044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,6 +1096,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sino ang katabi ko?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mamaw sa prog</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sino ang katabi ko?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mamaw sa prog</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1107,7 +1143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,6 +1197,23 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>054e3b308708370ea029dc2ebd1646c498d59d7203c9e1a44cf0484df98e581a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ebis0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>054e3b308708370ea029dc2ebd1646c498d59d7203c9e1a44cf0484df98e581a</t>
         </is>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1230,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,6 +1272,23 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5bcds</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mesiera, Leonard Andrew</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07081c592699a67f4485da2be31a48dbbb1372faf2a0683dee2435a18ec81870</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
@@ -460,6 +460,60 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>What year was python first created?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>From what year does tkinter released?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Its location has the same number as the speed of light, what structure is this?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pyramid of Giza</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>2</v>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -569,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,23 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5dg2j</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mikaella Aloa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
         </is>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -443,78 +443,6 @@
         <is>
           <t>question by</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>How long does the universe exists?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>13.4 billion years</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>What year was python first created?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>From what year does tkinter released?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Its location has the same number as the speed of light, what structure is this?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pyramid of Giza</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +459,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -569,13 +497,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="15.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="67.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -593,22 +525,90 @@
           <t>password</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5dg2j</t>
+          <t>vfm4w</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mikaella Aloa</t>
+          <t>Aloa, Mikaella</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
         </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2n55d</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kimmy, Rheign</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>g1kwu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rye, Rhianne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>my6xx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sesgundo, Ruina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +625,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -655,7 +655,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sesgundo, Ryann Kim M</t>
+          <t>Malabanan, RySes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,294 @@
         <is>
           <t>question by</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>The United States bought Alaska from which country?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fill in the blank: The 19th Amendment guarantees ____ the right to vote.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What was the first state to legalize same-sex marriage?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Where did Albert Einstein live before moving to the United States?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>During which war was a Christmas Truce called?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>World War I</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>How old was Queen Elizabeth II when she was crowned the Queen of England?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Who was the first Emperor of Rome?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Augustus</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Great Pyramid was built as a tomb for which pharaoh?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Khufu</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>How many rules are written in the Code of Hammurabi?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Who is the king of the Olympian gods in Greek mythology?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zeus</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Which ancient figure is often considered the founder of Western philosophy?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Socrates</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>What year was Facebook created?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Which planet was downgraded to a dwarf planet in 2006?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pluto</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>What year did Google launch?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>What year did the Internet become available to the public?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>From what year does the first webpage created?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,24 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Who is the founder of Facebook?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mark Zuckerberg</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -785,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -896,7 +914,27 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0nhis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nobles, Karl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9ab807c9b3bbb40efa327e625d0f891876f12cc59f2e3466ed3a36318e68c7a9</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5115" yWindow="585" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
@@ -803,10 +803,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -840,12 +840,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vfm4w</t>
+          <t>y2sqq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aloa, Mikaella</t>
+          <t>Malabanan, RySes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -854,87 +854,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2n55d</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Kimmy, Rheign</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>g1kwu</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rye, Rhianne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>my6xx</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sesgundo, Ruina</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8349c112e6b9b83a9296d60d1f7783551ebe7941c2ddab7597ccd727f338bf81</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0nhis</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nobles, Karl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9ab807c9b3bbb40efa327e625d0f891876f12cc59f2e3466ed3a36318e68c7a9</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +870,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,6 +748,32 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Who is the one who created HTML?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tim Berners-Lee</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
         <v>2</v>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -770,8 +770,18 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>What is the meaning of GUI?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>graphical user interface</t>
+        </is>
+      </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
@@ -417,8 +417,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -801,7 +801,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -839,9 +839,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
@@ -890,6 +890,46 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>qr0a0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rovic</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>olj6t</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rovic2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ef797c8118f02dfb649607dd5d3f8c7623048c9c063d532cc95c5ed7a898a64f</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>9</v>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -839,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="A2:D7"/>
@@ -931,6 +931,26 @@
       </c>
       <c r="D4" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4c4y2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francia12345678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
@@ -417,7 +417,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
@@ -841,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -839,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -951,6 +951,46 @@
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tv6gg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vinas, Jiro Miko</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ef797c8118f02dfb649607dd5d3f8c7623048c9c063d532cc95c5ed7a898a64f</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>j6yx9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Quindoza, Mark Aljo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:D20"/>
@@ -784,6 +784,114 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Who is the CEO Microsoft?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bill Gates</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Who is the founder of Apple?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Steve Jobs</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>It is a multi-purpose language, and considered as the easiest programming language.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>The first programming language, wherein you can write once, and run anywhere?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Facebook was developed under what company?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The first man on moon?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Neil Armstrong</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -839,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -896,32 +1004,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>qr0a0</t>
+          <t>4c4y2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rovic</t>
+          <t>Francia12345678</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92</t>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>olj6t</t>
+          <t>tv6gg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rovic2</t>
+          <t>Vinas, Jiro Miko</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -930,18 +1038,18 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4c4y2</t>
+          <t>j6yx9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Francia12345678</t>
+          <t>Quindoza, Mark Aljo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -950,46 +1058,6 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>tv6gg</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vinas, Jiro Miko</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ef797c8118f02dfb649607dd5d3f8c7623048c9c063d532cc95c5ed7a898a64f</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>j6yx9</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Quindoza, Mark Aljo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
         <v>10</v>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:D20"/>
@@ -892,6 +892,186 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>He rose to power and once being leader of Nazi Party in Germany?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Adolf Hitler</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Germany invaded _____.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>World War II was started on what year?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>From what country dies the World War II ends?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>On December 7 1941, ____ was suprisingly attacked by Japanese Army.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pearl Harbor</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Who colonized the Philippines for 300 years?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Me at the zoo was uploaded on YouTube on what year?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Who is the person behind computer system?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Charles Babbage</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Who is the first ever programmer in history?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ada Lovelace</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>It is a system where computer converted from the text that we've read?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
         <v>2</v>
       </c>
     </row>
@@ -998,7 +1178,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:D20"/>
@@ -1069,9 +1069,27 @@
         </is>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Android is based of what operating system?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1127,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1239,6 +1257,26 @@
       </c>
       <c r="D5" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1gef6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nobles, Christian</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
@@ -988,7 +988,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Who colonized the Philippines for 300 years?</t>
+          <t>What country who colonized the Philippines for 300 years?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -1145,9 +1145,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
@@ -1277,6 +1277,126 @@
       </c>
       <c r="D6" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>rtwsn</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Molina, Rogemson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ef797c8118f02dfb649607dd5d3f8c7623048c9c063d532cc95c5ed7a898a64f</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hoae2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saromines, Mary Dhil</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ef797c8118f02dfb649607dd5d3f8c7623048c9c063d532cc95c5ed7a898a64f</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>q1edb</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Regala, Alley Kyle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>e9cee71ab932fde863338d08be4de9dfe39ea049bdafb342ce659ec5450b69ae</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>yd2o1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rodelas, Cristina Gail</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>e9cee71ab932fde863338d08be4de9dfe39ea049bdafb342ce659ec5450b69ae</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tle43</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rada, Gizelle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>903a436b5a56dd4dfddf89d9c61ca57175be7a06440ce7564aa5cdd0384f676c</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>imv2k</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Salamo, Francis Raven</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ef797c8118f02dfb649607dd5d3f8c7623048c9c063d532cc95c5ed7a898a64f</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1292,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="archieves questions" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="students" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="archives questions" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -831,11 +832,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>python</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -849,11 +850,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1087,7 +1088,7 @@
         </is>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -1455,4 +1456,45 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>case sensitive</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>question by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1146,7 +1146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1398,6 +1398,46 @@
       </c>
       <c r="D12" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2xch1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>x1snp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>De Mesa, Camille</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:D20"/>
@@ -1091,6 +1091,60 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>What animal imprented in one 1000 Philippine peso bill?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Philippine Eagle</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>What animal immprented at the back of 200 Philippine Peso Bill?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tarsier</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>What is the meaning of baybayin, written in the Philippine Peso bills?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>pilipino</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>2</v>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
@@ -416,10 +416,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E41" sqref="A41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1145,6 +1145,14 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1507,7 +1515,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1567,25 +1575,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>case sensitive</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>question by</t>
-        </is>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E41" sqref="A41:E41"/>
@@ -1153,6 +1153,14 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1566,7 +1574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="C1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,8 +1583,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
       <c r="C1" t="b">
         <v>1</v>
       </c>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -416,10 +416,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E41" sqref="A41:E41"/>
+      <selection activeCell="A41" sqref="A41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1145,22 +1145,6 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
         <v>2</v>
       </c>
     </row>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
@@ -415,9 +415,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D41" sqref="A41:D41"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Binary</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1144,6 +1144,24 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Who developed telescope?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Galileo Galilei</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1160,7 +1178,7 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1456,12 +1474,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2xch1</t>
+          <t>x1snp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>De Mesa, Camille</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1470,18 +1488,18 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x1snp</t>
+          <t>09dqm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>De Mesa, Camille</t>
+          <t>Sesgundo, Ryann Kim M</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1490,7 +1508,27 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.5</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>p0rb2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sesgundo, Ryann Kim</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="questions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="archives questions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="students" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="archives questions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="students" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="teachers" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1529,6 +1529,26 @@
       </c>
       <c r="D15" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>iepoy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Luiz Kieth Patiag</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ef797c8118f02dfb649607dd5d3f8c7623048c9c063d532cc95c5ed7a898a64f</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/GUI/final project/data.xlsx
+++ b/GUI/final project/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D41" sqref="A41:D41"/>
@@ -1163,6 +1163,21 @@
       </c>
       <c r="D41" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>From what year World War II ends?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
